--- a/resources/excelfiles/DemoQaTestControl2Four.xlsx
+++ b/resources/excelfiles/DemoQaTestControl2Four.xlsx
@@ -53,7 +53,7 @@
     <t>clickOnHamburgerbuttonSubList</t>
   </si>
   <si>
-    <t>checkhamburgerbutton</t>
+    <t xml:space="preserve">click on the hamburger button </t>
   </si>
   <si>
     <t>2</t>
